--- a/202509_石野.xlsx
+++ b/202509_石野.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11020"/>
+    <workbookView windowWidth="28800" windowHeight="11980"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト仕様書" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
   <si>
     <t>プロジェクト名</t>
   </si>
@@ -74,7 +74,7 @@
     <t>再テスト元番号</t>
   </si>
   <si>
-    <t>ユーザー情報表示機能</t>
+    <t>ユーザー管理画面</t>
   </si>
   <si>
     <t>Gitマージ競合を修正し、アプリケーションをビルドする</t>
@@ -83,25 +83,13 @@
     <t>コンパイルが正常に完了し、アプリケーションが起動できる</t>
   </si>
   <si>
-    <t>ユーザー一覧画面を表示</t>
-  </si>
-  <si>
-    <t>ユーザー一覧が正しく表示される</t>
-  </si>
-  <si>
-    <t>ユーザー詳細画面を表示</t>
-  </si>
-  <si>
-    <t>ユーザー詳細が正しく表示される</t>
-  </si>
-  <si>
     <t>在庫一覧画面</t>
   </si>
   <si>
     <t>ソートキー「賞味期限（昇順）」で並び替え</t>
   </si>
   <si>
-    <t>賞味期限が近い順に商品が並んでいる</t>
+    <t>賞味期限が古い順に並んでいる</t>
   </si>
   <si>
     <t>ソートキー「食品名（昇順）」で並び替え</t>
@@ -110,7 +98,7 @@
     <t>食品名が昇順に並んでいる</t>
   </si>
   <si>
-    <t>在庫検索機能</t>
+    <t>検索結果画面</t>
   </si>
   <si>
     <t>商品名で検索した場合、賞味期限（昇順）で並び替え</t>
@@ -119,19 +107,19 @@
     <t>検索結果が賞味期限順に正しくソートされている</t>
   </si>
   <si>
-    <t>期限切れアラート画面</t>
+    <t>賞味期限アラート画面</t>
   </si>
   <si>
     <t>アラート画面で商品を表示</t>
   </si>
   <si>
-    <t>賞味期限が近い順に商品が並んで表示される</t>
+    <t>賞味期限が古い順に商品が並ぶ</t>
   </si>
   <si>
     <t>在庫詳細画面</t>
   </si>
   <si>
-    <t>「数量を増やす」で負の値を入力</t>
+    <t>「数量を増やす」で-1負の値を入力</t>
   </si>
   <si>
     <t>エラーメッセージ「1以上の値を入力してください」が表示される</t>
@@ -146,7 +134,7 @@
     <t>エラーメッセージ「9999以下の値を入力してください」が表示される</t>
   </si>
   <si>
-    <t>「数量を減らす」で負の値を入力</t>
+    <t>「数量を減らす」で-1負の値を入力</t>
   </si>
   <si>
     <t>「数量を減らす」で0を入力</t>
@@ -162,6 +150,12 @@
   </si>
   <si>
     <t>正常に処理される（上限値を超えない）</t>
+  </si>
+  <si>
+    <t>賞味期限未設定の商品が存在する状態で「賞味期限（昇順）」で並び替え</t>
+  </si>
+  <si>
+    <t>未設定商品は末尾に表示される（※仕様未確定のため要確認）</t>
   </si>
   <si>
     <t>問題点一覧</t>
@@ -218,7 +212,7 @@
     <numFmt numFmtId="179" formatCode="0.0"/>
     <numFmt numFmtId="180" formatCode="m/d"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -251,6 +245,12 @@
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="华文宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -812,31 +812,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,119 +842,122 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -997,8 +997,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1006,6 +1020,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1486,13 +1509,19 @@
   </sheetPr>
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="29" width="4.75" customWidth="1"/>
+    <col min="1" max="5" width="4.75" customWidth="1"/>
+    <col min="6" max="6" width="10.1160714285714" customWidth="1"/>
+    <col min="7" max="12" width="4.75" customWidth="1"/>
+    <col min="13" max="13" width="9.97321428571429" customWidth="1"/>
+    <col min="14" max="17" width="4.75" customWidth="1"/>
+    <col min="18" max="18" width="6.09821428571429" customWidth="1"/>
+    <col min="19" max="29" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:29">
@@ -1617,7 +1646,7 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="5"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="2:28">
+    <row r="5" ht="47" customHeight="1" spans="2:28">
       <c r="B5" s="17">
         <v>1</v>
       </c>
@@ -1630,25 +1659,25 @@
       <c r="G5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="20" t="s">
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="26" t="s">
         <v>16</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="13"/>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="31" t="s">
         <v>5</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="5"/>
-      <c r="V5" s="22">
+      <c r="V5" s="33">
         <v>45919</v>
       </c>
       <c r="W5" s="5"/>
@@ -1664,12 +1693,12 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="5"/>
       <c r="G6" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1677,19 +1706,19 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="21" t="s">
-        <v>18</v>
+      <c r="N6" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="13"/>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="31" t="s">
         <v>5</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="5"/>
-      <c r="V6" s="22">
+      <c r="V6" s="33">
         <v>45919</v>
       </c>
       <c r="W6" s="5"/>
@@ -1705,12 +1734,12 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="5"/>
       <c r="G7" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1718,19 +1747,19 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="20" t="s">
-        <v>20</v>
+      <c r="N7" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="13"/>
-      <c r="S7" s="19" t="s">
+      <c r="S7" s="31" t="s">
         <v>5</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="5"/>
-      <c r="V7" s="22">
+      <c r="V7" s="33">
         <v>45919</v>
       </c>
       <c r="W7" s="5"/>
@@ -1746,12 +1775,12 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="5"/>
       <c r="G8" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1759,19 +1788,19 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="20" t="s">
-        <v>23</v>
+      <c r="N8" s="26" t="s">
+        <v>24</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="13"/>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="31" t="s">
         <v>5</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="5"/>
-      <c r="V8" s="22">
+      <c r="V8" s="33">
         <v>45919</v>
       </c>
       <c r="W8" s="5"/>
@@ -1787,12 +1816,12 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="5"/>
       <c r="G9" s="18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1800,19 +1829,19 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="20" t="s">
-        <v>25</v>
+      <c r="N9" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="13"/>
-      <c r="S9" s="19" t="s">
+      <c r="S9" s="31" t="s">
         <v>5</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="5"/>
-      <c r="V9" s="22">
+      <c r="V9" s="33">
         <v>45919</v>
       </c>
       <c r="W9" s="5"/>
@@ -1827,33 +1856,33 @@
         <v>6</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="19" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="31" t="s">
         <v>5</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="22">
+      <c r="V10" s="33">
         <v>45919</v>
       </c>
       <c r="W10" s="5"/>
@@ -1868,33 +1897,33 @@
         <v>7</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="18" t="s">
+      <c r="D11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="19" t="s">
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="31" t="s">
         <v>5</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="5"/>
-      <c r="V11" s="22">
+      <c r="V11" s="33">
         <v>45919</v>
       </c>
       <c r="W11" s="5"/>
@@ -1909,33 +1938,33 @@
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="18" t="s">
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="19" t="s">
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="31" t="s">
         <v>5</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="5"/>
-      <c r="V12" s="22">
+      <c r="V12" s="33">
         <v>45919</v>
       </c>
       <c r="W12" s="5"/>
@@ -1950,33 +1979,33 @@
         <v>9</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="20" t="s">
+      <c r="D13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="19" t="s">
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="31" t="s">
         <v>5</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="5"/>
-      <c r="V13" s="22">
+      <c r="V13" s="33">
         <v>45919</v>
       </c>
       <c r="W13" s="5"/>
@@ -1991,33 +2020,33 @@
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="19" t="s">
+      <c r="D14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="31" t="s">
         <v>5</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="5"/>
-      <c r="V14" s="22">
+      <c r="V14" s="33">
         <v>45919</v>
       </c>
       <c r="W14" s="5"/>
@@ -2032,33 +2061,33 @@
         <v>11</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="5"/>
+      <c r="D15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="24"/>
       <c r="N15" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="31" t="s">
         <v>5</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="22">
+      <c r="V15" s="33">
         <v>45919</v>
       </c>
       <c r="W15" s="5"/>
@@ -2073,33 +2102,33 @@
         <v>12</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="18" t="s">
+      <c r="D16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="19" t="s">
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="31" t="s">
         <v>5</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="22">
+      <c r="V16" s="33">
         <v>45919</v>
       </c>
       <c r="W16" s="5"/>
@@ -2114,12 +2143,12 @@
         <v>13</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="19" t="s">
-        <v>32</v>
+      <c r="D17" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H17" s="2"/>
@@ -2128,19 +2157,19 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="21" t="s">
         <v>41</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="5"/>
-      <c r="S17" s="19" t="s">
+      <c r="S17" s="31" t="s">
         <v>5</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="5"/>
-      <c r="V17" s="22">
+      <c r="V17" s="33">
         <v>45919</v>
       </c>
       <c r="W17" s="5"/>
@@ -2155,35 +2184,25 @@
         <v>14</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="18" t="s">
-        <v>32</v>
-      </c>
+      <c r="D18" s="18"/>
       <c r="E18" s="2"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="18" t="s">
-        <v>42</v>
-      </c>
+      <c r="G18" s="18"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="N18" s="26"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="13"/>
-      <c r="S18" s="19" t="s">
-        <v>5</v>
-      </c>
+      <c r="S18" s="31"/>
       <c r="T18" s="2"/>
       <c r="U18" s="5"/>
-      <c r="V18" s="22">
-        <v>45919</v>
-      </c>
+      <c r="V18" s="33"/>
       <c r="W18" s="5"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="5"/>
@@ -4134,7 +4153,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="384">
+  <mergeCells count="381">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="R1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
@@ -4184,11 +4203,8 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:M9"/>
-    <mergeCell ref="N9:R9"/>
     <mergeCell ref="S9:U9"/>
     <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="G10:M10"/>
@@ -4554,7 +4570,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="5"/>
       <c r="J1" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -4624,7 +4640,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5"/>
@@ -4634,7 +4650,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -4643,7 +4659,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -7124,7 +7140,7 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -7192,12 +7208,12 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="5"/>
       <c r="G5" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -7206,14 +7222,14 @@
       <c r="L5" s="2"/>
       <c r="M5" s="5"/>
       <c r="N5" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="5"/>
       <c r="S5" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="5"/>
@@ -7222,11 +7238,11 @@
       </c>
       <c r="W5" s="5"/>
       <c r="X5" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y5" s="5"/>
       <c r="Z5" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA5" s="2"/>
       <c r="AB5" s="5"/>
@@ -7237,12 +7253,12 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="5"/>
       <c r="G6" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -7251,14 +7267,14 @@
       <c r="L6" s="2"/>
       <c r="M6" s="5"/>
       <c r="N6" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="5"/>
       <c r="S6" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="5"/>
@@ -7267,11 +7283,11 @@
       </c>
       <c r="W6" s="5"/>
       <c r="X6" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y6" s="5"/>
       <c r="Z6" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA6" s="2"/>
       <c r="AB6" s="5"/>
@@ -7282,12 +7298,12 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="5"/>
       <c r="G7" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -7296,14 +7312,14 @@
       <c r="L7" s="2"/>
       <c r="M7" s="5"/>
       <c r="N7" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="5"/>
       <c r="S7" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="5"/>
@@ -7312,7 +7328,7 @@
       </c>
       <c r="W7" s="5"/>
       <c r="X7" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y7" s="5"/>
       <c r="Z7" s="6">
@@ -10024,7 +10040,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="5"/>
       <c r="J1" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -10071,7 +10087,7 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -10094,7 +10110,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5"/>
@@ -10104,7 +10120,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -10113,7 +10129,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -10133,12 +10149,12 @@
       <c r="E5" s="2"/>
       <c r="F5" s="5"/>
       <c r="G5" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="5"/>
       <c r="J5" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -10147,7 +10163,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>

--- a/202509_石野.xlsx
+++ b/202509_石野.xlsx
@@ -604,7 +604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -706,6 +706,51 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -833,7 +878,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,34 +890,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,7 +1002,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -991,46 +1036,70 @@
     <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1510,7 +1579,7 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:F19"/>
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15" customHeight="1"/>
@@ -1650,599 +1719,599 @@
       <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="18" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="26" t="s">
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="31" t="s">
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="33">
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="36">
         <v>45919</v>
       </c>
-      <c r="W5" s="5"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="5"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B6" s="17">
+      <c r="B6" s="20">
         <v>2</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="18" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="27" t="s">
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="31" t="s">
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="33">
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="38">
         <v>45919</v>
       </c>
-      <c r="W6" s="5"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="5"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B7" s="17">
+      <c r="B7" s="20">
         <v>3</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="18" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="26" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="31" t="s">
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="33">
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="38">
         <v>45919</v>
       </c>
-      <c r="W7" s="5"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="5"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B8" s="17">
+      <c r="B8" s="20">
         <v>4</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="18" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="26" t="s">
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="31" t="s">
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="33">
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="38">
         <v>45919</v>
       </c>
-      <c r="W8" s="5"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="5"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B9" s="17">
+      <c r="B9" s="20">
         <v>5</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="18" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="28" t="s">
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="31" t="s">
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="33">
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="38">
         <v>45919</v>
       </c>
-      <c r="W9" s="5"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="5"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B10" s="17">
+      <c r="B10" s="20">
         <v>6</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="19" t="s">
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="29" t="s">
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="31" t="s">
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="33">
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="38">
         <v>45919</v>
       </c>
-      <c r="W10" s="5"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="5"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B11" s="17">
+      <c r="B11" s="20">
         <v>7</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="19" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="29" t="s">
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="31" t="s">
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="33">
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="38">
         <v>45919</v>
       </c>
-      <c r="W11" s="5"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="5"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B12" s="17">
+      <c r="B12" s="20">
         <v>8</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="19" t="s">
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="29" t="s">
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="31" t="s">
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T12" s="2"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="33">
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="38">
         <v>45919</v>
       </c>
-      <c r="W12" s="5"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="5"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B13" s="17">
+      <c r="B13" s="20">
         <v>9</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="19" t="s">
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="29" t="s">
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="31" t="s">
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T13" s="2"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="33">
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="38">
         <v>45919</v>
       </c>
-      <c r="W13" s="5"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="5"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B14" s="17">
+      <c r="B14" s="20">
         <v>10</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="19" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="19" t="s">
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="29" t="s">
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="31" t="s">
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="2"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="33">
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="38">
         <v>45919</v>
       </c>
-      <c r="W14" s="5"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="5"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B15" s="17">
+      <c r="B15" s="20">
         <v>11</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="20" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="20" t="s">
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="20" t="s">
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="31" t="s">
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T15" s="2"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="33">
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="38">
         <v>45919</v>
       </c>
-      <c r="W15" s="5"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="5"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B16" s="17">
+      <c r="B16" s="20">
         <v>12</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="19" t="s">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="29" t="s">
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="31" t="s">
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T16" s="2"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="33">
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="38">
         <v>45919</v>
       </c>
-      <c r="W16" s="5"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="5"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B17" s="17">
+      <c r="B17" s="20">
         <v>13</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="21" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="21" t="s">
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="31" t="s">
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T17" s="2"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="33">
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="38">
         <v>45919</v>
       </c>
-      <c r="W17" s="5"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="5"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B18" s="17">
+      <c r="B18" s="20">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="5"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B19" s="17">
+      <c r="B19" s="26">
         <v>15</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="5"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B20" s="17">
+      <c r="B20" s="29">
         <v>16</v>
       </c>
       <c r="C20" s="5"/>
@@ -2273,7 +2342,7 @@
       <c r="AB20" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B21" s="17">
+      <c r="B21" s="29">
         <v>17</v>
       </c>
       <c r="C21" s="5"/>
@@ -2304,7 +2373,7 @@
       <c r="AB21" s="5"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B22" s="17">
+      <c r="B22" s="29">
         <v>18</v>
       </c>
       <c r="C22" s="5"/>
@@ -2335,7 +2404,7 @@
       <c r="AB22" s="5"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B23" s="17">
+      <c r="B23" s="29">
         <v>19</v>
       </c>
       <c r="C23" s="5"/>
@@ -2366,7 +2435,7 @@
       <c r="AB23" s="5"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B24" s="17">
+      <c r="B24" s="29">
         <v>20</v>
       </c>
       <c r="C24" s="5"/>
@@ -2397,7 +2466,7 @@
       <c r="AB24" s="5"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B25" s="17">
+      <c r="B25" s="29">
         <v>21</v>
       </c>
       <c r="C25" s="5"/>
@@ -2428,7 +2497,7 @@
       <c r="AB25" s="5"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B26" s="17">
+      <c r="B26" s="29">
         <v>22</v>
       </c>
       <c r="C26" s="5"/>
@@ -2459,7 +2528,7 @@
       <c r="AB26" s="5"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B27" s="17">
+      <c r="B27" s="29">
         <v>23</v>
       </c>
       <c r="C27" s="5"/>
@@ -2490,7 +2559,7 @@
       <c r="AB27" s="5"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B28" s="17">
+      <c r="B28" s="29">
         <v>24</v>
       </c>
       <c r="C28" s="5"/>
@@ -2521,7 +2590,7 @@
       <c r="AB28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B29" s="17">
+      <c r="B29" s="29">
         <v>25</v>
       </c>
       <c r="C29" s="5"/>
@@ -2552,7 +2621,7 @@
       <c r="AB29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B30" s="17">
+      <c r="B30" s="29">
         <v>26</v>
       </c>
       <c r="C30" s="5"/>
@@ -2583,7 +2652,7 @@
       <c r="AB30" s="5"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B31" s="17">
+      <c r="B31" s="29">
         <v>27</v>
       </c>
       <c r="C31" s="5"/>
@@ -2614,7 +2683,7 @@
       <c r="AB31" s="5"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B32" s="17">
+      <c r="B32" s="29">
         <v>28</v>
       </c>
       <c r="C32" s="5"/>
@@ -2645,7 +2714,7 @@
       <c r="AB32" s="5"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B33" s="17">
+      <c r="B33" s="29">
         <v>29</v>
       </c>
       <c r="C33" s="5"/>
@@ -2676,7 +2745,7 @@
       <c r="AB33" s="5"/>
     </row>
     <row r="34" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B34" s="17">
+      <c r="B34" s="29">
         <v>30</v>
       </c>
       <c r="C34" s="5"/>
@@ -2707,7 +2776,7 @@
       <c r="AB34" s="5"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B35" s="17">
+      <c r="B35" s="29">
         <v>31</v>
       </c>
       <c r="C35" s="5"/>
@@ -2738,7 +2807,7 @@
       <c r="AB35" s="5"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B36" s="17">
+      <c r="B36" s="29">
         <v>32</v>
       </c>
       <c r="C36" s="5"/>
@@ -2769,7 +2838,7 @@
       <c r="AB36" s="5"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B37" s="17">
+      <c r="B37" s="29">
         <v>33</v>
       </c>
       <c r="C37" s="5"/>
@@ -2800,7 +2869,7 @@
       <c r="AB37" s="5"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B38" s="17">
+      <c r="B38" s="29">
         <v>34</v>
       </c>
       <c r="C38" s="5"/>
@@ -2831,7 +2900,7 @@
       <c r="AB38" s="5"/>
     </row>
     <row r="39" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B39" s="17">
+      <c r="B39" s="29">
         <v>35</v>
       </c>
       <c r="C39" s="5"/>
@@ -2862,7 +2931,7 @@
       <c r="AB39" s="5"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B40" s="17">
+      <c r="B40" s="29">
         <v>36</v>
       </c>
       <c r="C40" s="5"/>
@@ -2893,7 +2962,7 @@
       <c r="AB40" s="5"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B41" s="17">
+      <c r="B41" s="29">
         <v>37</v>
       </c>
       <c r="C41" s="5"/>
@@ -2924,7 +2993,7 @@
       <c r="AB41" s="5"/>
     </row>
     <row r="42" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B42" s="17">
+      <c r="B42" s="29">
         <v>38</v>
       </c>
       <c r="C42" s="5"/>
@@ -2955,7 +3024,7 @@
       <c r="AB42" s="5"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B43" s="17">
+      <c r="B43" s="29">
         <v>39</v>
       </c>
       <c r="C43" s="5"/>
@@ -2986,7 +3055,7 @@
       <c r="AB43" s="5"/>
     </row>
     <row r="44" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B44" s="17">
+      <c r="B44" s="29">
         <v>40</v>
       </c>
       <c r="C44" s="5"/>
@@ -3017,7 +3086,7 @@
       <c r="AB44" s="5"/>
     </row>
     <row r="45" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B45" s="17">
+      <c r="B45" s="29">
         <v>41</v>
       </c>
       <c r="C45" s="5"/>
@@ -3048,7 +3117,7 @@
       <c r="AB45" s="5"/>
     </row>
     <row r="46" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B46" s="17">
+      <c r="B46" s="29">
         <v>42</v>
       </c>
       <c r="C46" s="5"/>
@@ -3079,7 +3148,7 @@
       <c r="AB46" s="5"/>
     </row>
     <row r="47" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B47" s="17">
+      <c r="B47" s="29">
         <v>43</v>
       </c>
       <c r="C47" s="5"/>
@@ -3110,7 +3179,7 @@
       <c r="AB47" s="5"/>
     </row>
     <row r="48" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B48" s="17">
+      <c r="B48" s="29">
         <v>44</v>
       </c>
       <c r="C48" s="5"/>
@@ -3141,7 +3210,7 @@
       <c r="AB48" s="5"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B49" s="17">
+      <c r="B49" s="29">
         <v>45</v>
       </c>
       <c r="C49" s="5"/>
@@ -3172,7 +3241,7 @@
       <c r="AB49" s="5"/>
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B50" s="17">
+      <c r="B50" s="29">
         <v>46</v>
       </c>
       <c r="C50" s="5"/>
@@ -4153,7 +4222,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="381">
+  <mergeCells count="383">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="R1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
@@ -4205,6 +4274,8 @@
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="S9:U9"/>
     <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="G10:M10"/>

--- a/202509_石野.xlsx
+++ b/202509_石野.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="58">
   <si>
     <t>プロジェクト名</t>
   </si>
@@ -83,6 +83,9 @@
     <t>コンパイルが正常に完了し、アプリケーションが起動できる</t>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>在庫一覧画面</t>
   </si>
   <si>
@@ -105,6 +108,9 @@
   </si>
   <si>
     <t>検索結果が賞味期限順に正しくソートされている</t>
+  </si>
+  <si>
+    <t>NG</t>
   </si>
   <si>
     <t>賞味期限アラート画面</t>
@@ -170,6 +176,12 @@
     <t>修正内容</t>
   </si>
   <si>
+    <t>商品名で検索した時の賞味期限が古い順から並んでない</t>
+  </si>
+  <si>
+    <t>商品名で検索をかけた時の結果で賞味期限が古い順で並ぶようにした。</t>
+  </si>
+  <si>
     <t>前田</t>
   </si>
   <si>
@@ -182,16 +194,10 @@
     <t>検索ボタン押下後に"整数を入力してください"のエラーメッセージが出力される</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>商品番号テキストに少数を入力</t>
-  </si>
-  <si>
-    <t>NG</t>
   </si>
   <si>
     <t>小数点の考慮が漏れ、負の数に対してのみ修正実装を行った</t>
@@ -242,15 +248,15 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="华文宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="华文宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1002,7 +1008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1036,27 +1042,30 @@
     <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1073,7 +1082,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1086,20 +1095,29 @@
     <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1578,8 +1596,8 @@
   </sheetPr>
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15" customHeight="1"/>
@@ -1716,602 +1734,628 @@
       <c r="AB4" s="5"/>
     </row>
     <row r="5" ht="47" customHeight="1" spans="2:28">
-      <c r="B5" s="17">
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="19" t="s">
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="34" t="s">
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="36">
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="37">
         <v>45919</v>
       </c>
-      <c r="W5" s="18"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B6" s="20">
+      <c r="B6" s="21">
         <v>2</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="32" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="35" t="s">
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
       <c r="V6" s="38">
         <v>45919</v>
       </c>
-      <c r="W6" s="21"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B7" s="20">
+      <c r="B7" s="21">
         <v>3</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="22" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="35" t="s">
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
       <c r="V7" s="38">
         <v>45919</v>
       </c>
-      <c r="W7" s="21"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B8" s="20">
+      <c r="B8" s="21">
         <v>4</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="22" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="35" t="s">
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
       <c r="V8" s="38">
         <v>45919</v>
       </c>
-      <c r="W8" s="21"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B9" s="20">
+      <c r="B9" s="21">
         <v>5</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="33" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="35" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
       <c r="V9" s="38">
         <v>45919</v>
       </c>
-      <c r="W9" s="21"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B10" s="20">
+      <c r="B10" s="21">
         <v>6</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="23" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="35" t="s">
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
       <c r="V10" s="38">
         <v>45919</v>
       </c>
-      <c r="W10" s="21"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B11" s="20">
+      <c r="B11" s="21">
         <v>7</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="23" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="35" t="s">
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
       <c r="V11" s="38">
         <v>45919</v>
       </c>
-      <c r="W11" s="21"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B12" s="20">
+      <c r="B12" s="21">
         <v>8</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="35" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
       <c r="V12" s="38">
         <v>45919</v>
       </c>
-      <c r="W12" s="21"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B13" s="20">
+      <c r="B13" s="21">
         <v>9</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="23" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="35" t="s">
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
       <c r="V13" s="38">
         <v>45919</v>
       </c>
-      <c r="W13" s="21"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B14" s="20">
+      <c r="B14" s="21">
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="23" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="35" t="s">
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
       <c r="V14" s="38">
         <v>45919</v>
       </c>
-      <c r="W14" s="21"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B15" s="20">
+      <c r="B15" s="21">
         <v>11</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="35" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
       <c r="V15" s="38">
         <v>45919</v>
       </c>
-      <c r="W15" s="21"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B16" s="20">
+      <c r="B16" s="21">
         <v>12</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="35" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
       <c r="V16" s="38">
         <v>45919</v>
       </c>
-      <c r="W16" s="21"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B17" s="20">
+      <c r="B17" s="21">
         <v>13</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="35" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
       <c r="V17" s="38">
         <v>45919</v>
       </c>
-      <c r="W17" s="21"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B18" s="20">
+      <c r="B18" s="21">
         <v>14</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
       <c r="V18" s="38"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B19" s="26">
+      <c r="B19" s="27">
         <v>15</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
       <c r="V19" s="41"/>
-      <c r="W19" s="27"/>
+      <c r="W19" s="28"/>
       <c r="X19" s="41"/>
-      <c r="Y19" s="27"/>
+      <c r="Y19" s="28"/>
       <c r="Z19" s="41"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B20" s="29">
+      <c r="B20" s="30">
         <v>16</v>
       </c>
       <c r="C20" s="5"/>
@@ -2342,7 +2386,7 @@
       <c r="AB20" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B21" s="29">
+      <c r="B21" s="30">
         <v>17</v>
       </c>
       <c r="C21" s="5"/>
@@ -2373,7 +2417,7 @@
       <c r="AB21" s="5"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B22" s="29">
+      <c r="B22" s="30">
         <v>18</v>
       </c>
       <c r="C22" s="5"/>
@@ -2404,7 +2448,7 @@
       <c r="AB22" s="5"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B23" s="29">
+      <c r="B23" s="30">
         <v>19</v>
       </c>
       <c r="C23" s="5"/>
@@ -2435,7 +2479,7 @@
       <c r="AB23" s="5"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B24" s="29">
+      <c r="B24" s="30">
         <v>20</v>
       </c>
       <c r="C24" s="5"/>
@@ -2466,7 +2510,7 @@
       <c r="AB24" s="5"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B25" s="29">
+      <c r="B25" s="30">
         <v>21</v>
       </c>
       <c r="C25" s="5"/>
@@ -2497,7 +2541,7 @@
       <c r="AB25" s="5"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B26" s="29">
+      <c r="B26" s="30">
         <v>22</v>
       </c>
       <c r="C26" s="5"/>
@@ -2528,7 +2572,7 @@
       <c r="AB26" s="5"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B27" s="29">
+      <c r="B27" s="30">
         <v>23</v>
       </c>
       <c r="C27" s="5"/>
@@ -2559,7 +2603,7 @@
       <c r="AB27" s="5"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B28" s="29">
+      <c r="B28" s="30">
         <v>24</v>
       </c>
       <c r="C28" s="5"/>
@@ -2590,7 +2634,7 @@
       <c r="AB28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B29" s="29">
+      <c r="B29" s="30">
         <v>25</v>
       </c>
       <c r="C29" s="5"/>
@@ -2621,7 +2665,7 @@
       <c r="AB29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B30" s="29">
+      <c r="B30" s="30">
         <v>26</v>
       </c>
       <c r="C30" s="5"/>
@@ -2652,7 +2696,7 @@
       <c r="AB30" s="5"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B31" s="29">
+      <c r="B31" s="30">
         <v>27</v>
       </c>
       <c r="C31" s="5"/>
@@ -2683,7 +2727,7 @@
       <c r="AB31" s="5"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B32" s="29">
+      <c r="B32" s="30">
         <v>28</v>
       </c>
       <c r="C32" s="5"/>
@@ -2714,7 +2758,7 @@
       <c r="AB32" s="5"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B33" s="29">
+      <c r="B33" s="30">
         <v>29</v>
       </c>
       <c r="C33" s="5"/>
@@ -2745,7 +2789,7 @@
       <c r="AB33" s="5"/>
     </row>
     <row r="34" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B34" s="29">
+      <c r="B34" s="30">
         <v>30</v>
       </c>
       <c r="C34" s="5"/>
@@ -2776,7 +2820,7 @@
       <c r="AB34" s="5"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B35" s="29">
+      <c r="B35" s="30">
         <v>31</v>
       </c>
       <c r="C35" s="5"/>
@@ -2807,7 +2851,7 @@
       <c r="AB35" s="5"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B36" s="29">
+      <c r="B36" s="30">
         <v>32</v>
       </c>
       <c r="C36" s="5"/>
@@ -2838,7 +2882,7 @@
       <c r="AB36" s="5"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B37" s="29">
+      <c r="B37" s="30">
         <v>33</v>
       </c>
       <c r="C37" s="5"/>
@@ -2869,7 +2913,7 @@
       <c r="AB37" s="5"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B38" s="29">
+      <c r="B38" s="30">
         <v>34</v>
       </c>
       <c r="C38" s="5"/>
@@ -2900,7 +2944,7 @@
       <c r="AB38" s="5"/>
     </row>
     <row r="39" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B39" s="29">
+      <c r="B39" s="30">
         <v>35</v>
       </c>
       <c r="C39" s="5"/>
@@ -2931,7 +2975,7 @@
       <c r="AB39" s="5"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B40" s="29">
+      <c r="B40" s="30">
         <v>36</v>
       </c>
       <c r="C40" s="5"/>
@@ -2962,7 +3006,7 @@
       <c r="AB40" s="5"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B41" s="29">
+      <c r="B41" s="30">
         <v>37</v>
       </c>
       <c r="C41" s="5"/>
@@ -2993,7 +3037,7 @@
       <c r="AB41" s="5"/>
     </row>
     <row r="42" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B42" s="29">
+      <c r="B42" s="30">
         <v>38</v>
       </c>
       <c r="C42" s="5"/>
@@ -3024,7 +3068,7 @@
       <c r="AB42" s="5"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B43" s="29">
+      <c r="B43" s="30">
         <v>39</v>
       </c>
       <c r="C43" s="5"/>
@@ -3055,7 +3099,7 @@
       <c r="AB43" s="5"/>
     </row>
     <row r="44" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B44" s="29">
+      <c r="B44" s="30">
         <v>40</v>
       </c>
       <c r="C44" s="5"/>
@@ -3086,7 +3130,7 @@
       <c r="AB44" s="5"/>
     </row>
     <row r="45" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B45" s="29">
+      <c r="B45" s="30">
         <v>41</v>
       </c>
       <c r="C45" s="5"/>
@@ -3117,7 +3161,7 @@
       <c r="AB45" s="5"/>
     </row>
     <row r="46" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B46" s="29">
+      <c r="B46" s="30">
         <v>42</v>
       </c>
       <c r="C46" s="5"/>
@@ -3148,7 +3192,7 @@
       <c r="AB46" s="5"/>
     </row>
     <row r="47" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B47" s="29">
+      <c r="B47" s="30">
         <v>43</v>
       </c>
       <c r="C47" s="5"/>
@@ -3179,7 +3223,7 @@
       <c r="AB47" s="5"/>
     </row>
     <row r="48" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B48" s="29">
+      <c r="B48" s="30">
         <v>44</v>
       </c>
       <c r="C48" s="5"/>
@@ -3210,7 +3254,7 @@
       <c r="AB48" s="5"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B49" s="29">
+      <c r="B49" s="30">
         <v>45</v>
       </c>
       <c r="C49" s="5"/>
@@ -3241,7 +3285,7 @@
       <c r="AB49" s="5"/>
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="2:28">
-      <c r="B50" s="29">
+      <c r="B50" s="30">
         <v>46</v>
       </c>
       <c r="C50" s="5"/>
@@ -4620,7 +4664,7 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
+      <selection activeCell="Q31" sqref="Q31:W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15" customHeight="1"/>
@@ -4641,7 +4685,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="5"/>
       <c r="J1" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -4711,7 +4755,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5"/>
@@ -4721,7 +4765,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -4730,7 +4774,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -4744,20 +4788,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="17" t="s">
+        <v>5</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -7211,7 +7263,7 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -7279,12 +7331,12 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="5"/>
       <c r="G5" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -7293,14 +7345,14 @@
       <c r="L5" s="2"/>
       <c r="M5" s="5"/>
       <c r="N5" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="5"/>
       <c r="S5" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="5"/>
@@ -7309,11 +7361,11 @@
       </c>
       <c r="W5" s="5"/>
       <c r="X5" s="6" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="Y5" s="5"/>
       <c r="Z5" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AA5" s="2"/>
       <c r="AB5" s="5"/>
@@ -7324,12 +7376,12 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="5"/>
       <c r="G6" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -7338,14 +7390,14 @@
       <c r="L6" s="2"/>
       <c r="M6" s="5"/>
       <c r="N6" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="5"/>
       <c r="S6" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="5"/>
@@ -7354,11 +7406,11 @@
       </c>
       <c r="W6" s="5"/>
       <c r="X6" s="6" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="Y6" s="5"/>
       <c r="Z6" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AA6" s="2"/>
       <c r="AB6" s="5"/>
@@ -7369,12 +7421,12 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="5"/>
       <c r="G7" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -7383,14 +7435,14 @@
       <c r="L7" s="2"/>
       <c r="M7" s="5"/>
       <c r="N7" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="5"/>
       <c r="S7" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="5"/>
@@ -7399,7 +7451,7 @@
       </c>
       <c r="W7" s="5"/>
       <c r="X7" s="6" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="Y7" s="5"/>
       <c r="Z7" s="6">
@@ -10111,7 +10163,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="5"/>
       <c r="J1" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -10158,7 +10210,7 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -10181,7 +10233,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5"/>
@@ -10191,7 +10243,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -10200,7 +10252,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -10220,12 +10272,12 @@
       <c r="E5" s="2"/>
       <c r="F5" s="5"/>
       <c r="G5" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="5"/>
       <c r="J5" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -10234,7 +10286,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>

--- a/202509_石野.xlsx
+++ b/202509_石野.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="58">
   <si>
     <t>プロジェクト名</t>
   </si>
@@ -1008,7 +1008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1101,8 +1101,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1117,7 +1123,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1597,7 +1612,7 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:M21"/>
+      <selection activeCell="D18" sqref="D18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15" customHeight="1"/>
@@ -1771,8 +1786,8 @@
       <c r="X5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="43"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="45"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
     </row>
@@ -1814,8 +1829,8 @@
       <c r="X6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="40"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="47"/>
       <c r="AA6" s="22"/>
       <c r="AB6" s="22"/>
     </row>
@@ -1857,8 +1872,8 @@
       <c r="X7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="40"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="47"/>
       <c r="AA7" s="22"/>
       <c r="AB7" s="22"/>
     </row>
@@ -1900,8 +1915,8 @@
       <c r="X8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="40"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="47"/>
       <c r="AA8" s="22"/>
       <c r="AB8" s="22"/>
     </row>
@@ -1944,9 +1959,9 @@
         <v>17</v>
       </c>
       <c r="Y9" s="39"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="2:28">
       <c r="B10" s="21">
@@ -1986,8 +2001,8 @@
       <c r="X10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="40"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="47"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="22"/>
     </row>
@@ -2029,8 +2044,8 @@
       <c r="X11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="40"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="47"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="22"/>
     </row>
@@ -2072,8 +2087,8 @@
       <c r="X12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="40"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="47"/>
       <c r="AA12" s="22"/>
       <c r="AB12" s="22"/>
     </row>
@@ -2115,8 +2130,8 @@
       <c r="X13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="40"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="47"/>
       <c r="AA13" s="22"/>
       <c r="AB13" s="22"/>
     </row>
@@ -2158,8 +2173,8 @@
       <c r="X14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="40"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="47"/>
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
     </row>
@@ -2201,8 +2216,8 @@
       <c r="X15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="40"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="47"/>
       <c r="AA15" s="22"/>
       <c r="AB15" s="22"/>
     </row>
@@ -2244,8 +2259,8 @@
       <c r="X16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="40"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="47"/>
       <c r="AA16" s="22"/>
       <c r="AB16" s="22"/>
     </row>
@@ -2287,8 +2302,8 @@
       <c r="X17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="40"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="47"/>
       <c r="AA17" s="22"/>
       <c r="AB17" s="22"/>
     </row>
@@ -2297,31 +2312,45 @@
         <v>14</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
+      <c r="D18" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
+      <c r="G18" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
-      <c r="N18" s="23"/>
+      <c r="N18" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
+      <c r="S18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="40">
+        <v>45923</v>
+      </c>
+      <c r="W18" s="41"/>
+      <c r="X18" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="50"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="2:28">
       <c r="B19" s="27">
@@ -2346,11 +2375,11 @@
       <c r="S19" s="29"/>
       <c r="T19" s="28"/>
       <c r="U19" s="28"/>
-      <c r="V19" s="41"/>
+      <c r="V19" s="43"/>
       <c r="W19" s="28"/>
-      <c r="X19" s="41"/>
+      <c r="X19" s="43"/>
       <c r="Y19" s="28"/>
-      <c r="Z19" s="41"/>
+      <c r="Z19" s="43"/>
       <c r="AA19" s="28"/>
       <c r="AB19" s="28"/>
     </row>
@@ -7195,7 +7224,7 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
+      <selection activeCell="D7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15" customHeight="1"/>
